--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\EU EPS\InputData\land\PLANAbPiaSY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire Trevisan\Dropbox (Energy Innovation)\Documents\GitHub\eps-eu\InputData\land\PLANAbPiaSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BFBB85-9E3D-4B2E-A1BB-8979F6565689}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4C8EB8-7116-486B-8AB1-E2988B87ACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3675" windowWidth="29040" windowHeight="17265" tabRatio="780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -604,12 +604,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0.##########"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.##########"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +670,13 @@
       <sz val="9"/>
       <color indexed="9"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -853,7 +861,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -861,17 +869,14 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -892,7 +897,7 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -901,7 +906,7 @@
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -914,14 +919,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -939,10 +940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -950,9 +948,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
@@ -964,10 +959,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -976,7 +967,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -986,6 +976,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
@@ -1477,20 +1471,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" customWidth="1"/>
-    <col min="2" max="2" width="59.86328125" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" customWidth="1"/>
+    <col min="2" max="2" width="59.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1498,188 +1492,183 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="32" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="5">
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="32" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B7" s="47" t="s">
+    <row r="7" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="40" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B8" s="32" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B9" s="32"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" s="32" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B12" s="32" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" s="46" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="39" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="50" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B18" s="6">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" s="5">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B25" s="6">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" s="5">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B27" s="10" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B33" s="48" t="s">
+    <row r="33" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B33" s="41" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B36" s="6">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="5">
         <v>2020</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B37" s="6" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B38" s="48" t="s">
+    <row r="38" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B38" s="41" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B39" s="52" t="s">
+    <row r="39" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="B39" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="54">
+      <c r="C39" s="45">
         <v>0.52</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B40" s="52"/>
-    </row>
-    <row r="42" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="43"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="32" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="32"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" s="32" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="32"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2.47105</v>
       </c>
@@ -1705,2157 +1694,2162 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F63C88-E03F-4E78-8736-473067909D9E}">
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.35" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.86328125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="9.9296875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="5" style="18" customWidth="1"/>
-    <col min="4" max="4" width="9.9296875" style="18" customWidth="1"/>
-    <col min="5" max="5" width="5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="9.9296875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="5" style="18" customWidth="1"/>
-    <col min="8" max="8" width="9.9296875" style="18" customWidth="1"/>
-    <col min="9" max="9" width="5" style="18" customWidth="1"/>
-    <col min="10" max="10" width="9.9296875" style="18" customWidth="1"/>
-    <col min="11" max="11" width="5" style="18" customWidth="1"/>
-    <col min="12" max="12" width="9.9296875" style="18" customWidth="1"/>
-    <col min="13" max="13" width="5" style="18" customWidth="1"/>
-    <col min="14" max="14" width="9.9296875" style="18" customWidth="1"/>
-    <col min="15" max="15" width="5" style="18" customWidth="1"/>
-    <col min="16" max="16" width="9.9296875" style="18" customWidth="1"/>
-    <col min="17" max="17" width="5" style="18" customWidth="1"/>
-    <col min="18" max="18" width="9.9296875" style="18" customWidth="1"/>
-    <col min="19" max="19" width="5" style="18" customWidth="1"/>
-    <col min="20" max="16384" width="9.06640625" style="18"/>
+    <col min="1" max="1" width="29.81640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="5" style="15" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="5" style="15" customWidth="1"/>
+    <col min="10" max="10" width="9.90625" style="15" customWidth="1"/>
+    <col min="11" max="11" width="5" style="15" customWidth="1"/>
+    <col min="12" max="12" width="9.90625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="5" style="15" customWidth="1"/>
+    <col min="14" max="14" width="9.90625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="5" style="15" customWidth="1"/>
+    <col min="16" max="16" width="9.90625" style="15" customWidth="1"/>
+    <col min="17" max="17" width="5" style="15" customWidth="1"/>
+    <col min="18" max="18" width="9.90625" style="15" customWidth="1"/>
+    <col min="19" max="19" width="5" style="15" customWidth="1"/>
+    <col min="20" max="16384" width="9.08984375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="51" t="s">
+      <c r="C9" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="51" t="s">
+      <c r="E9" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="51" t="s">
+      <c r="G9" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="51" t="s">
+      <c r="I9" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="51" t="s">
+      <c r="K9" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="M9" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="N9" s="51" t="s">
+      <c r="M9" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="O9" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" s="51" t="s">
+      <c r="O9" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="R9" s="51" t="s">
+      <c r="Q9" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="R9" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="S9" s="51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A10" s="21" t="s">
+      <c r="S9" s="58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="P10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="R10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="S10" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11" s="23" t="s">
+      <c r="B10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="21">
         <v>145031.62</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="24">
+      <c r="C11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="21">
         <v>151626.76</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="24">
+      <c r="E11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="21">
         <v>156440.47</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="24">
+      <c r="G11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="21">
         <v>158084.15</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="24">
+      <c r="I11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="21">
         <v>158296.92000000001</v>
       </c>
-      <c r="K11" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="24">
+      <c r="K11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="21">
         <v>158511.72</v>
       </c>
-      <c r="M11" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" s="24">
+      <c r="M11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="21">
         <v>158694.54</v>
       </c>
-      <c r="O11" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" s="26">
+      <c r="O11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="23">
         <v>158877.20000000001</v>
       </c>
-      <c r="Q11" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R11" s="24">
+      <c r="Q11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R11" s="21">
         <v>159058.85</v>
       </c>
-      <c r="S11" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A12" s="23" t="s">
+      <c r="S11" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="24">
         <v>147809.62</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="27">
+      <c r="C12" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="24">
         <v>154580.76</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="27">
+      <c r="E12" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="24">
         <v>159499.47</v>
       </c>
-      <c r="G12" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="27">
+      <c r="G12" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="24">
         <v>161239.15</v>
       </c>
-      <c r="I12" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="27">
+      <c r="I12" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="24">
         <v>161455.92000000001</v>
       </c>
-      <c r="K12" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="27">
+      <c r="K12" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="24">
         <v>161675.72</v>
       </c>
-      <c r="M12" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12" s="27">
+      <c r="M12" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="24">
         <v>161867.54</v>
       </c>
-      <c r="O12" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P12" s="29">
+      <c r="O12" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="26">
         <v>162059.20000000001</v>
       </c>
-      <c r="Q12" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R12" s="28" t="s">
+      <c r="Q12" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R12" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="S12" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13" s="23" t="s">
+      <c r="S12" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="23">
         <v>677.4</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="26">
+      <c r="C13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="23">
         <v>667.3</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="24">
+      <c r="E13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="21">
         <v>689.87</v>
       </c>
-      <c r="G13" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="26">
+      <c r="G13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="23">
         <v>689.3</v>
       </c>
-      <c r="I13" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="26">
+      <c r="I13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="23">
         <v>689.3</v>
       </c>
-      <c r="K13" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="26">
+      <c r="K13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="23">
         <v>689.3</v>
       </c>
-      <c r="M13" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N13" s="26">
+      <c r="M13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="23">
         <v>689.3</v>
       </c>
-      <c r="O13" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P13" s="26">
+      <c r="O13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="23">
         <v>689.3</v>
       </c>
-      <c r="Q13" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R13" s="26">
+      <c r="Q13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13" s="23">
         <v>689.3</v>
       </c>
-      <c r="S13" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A14" s="23" t="s">
+      <c r="S13" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="26">
         <v>3327</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="29">
+      <c r="C14" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="26">
         <v>3375</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="29">
+      <c r="E14" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="26">
         <v>3737</v>
       </c>
-      <c r="G14" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="29">
+      <c r="G14" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="26">
         <v>3833</v>
       </c>
-      <c r="I14" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="29">
+      <c r="I14" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="26">
         <v>3841</v>
       </c>
-      <c r="K14" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="29">
+      <c r="K14" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="26">
         <v>3854</v>
       </c>
-      <c r="M14" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N14" s="29">
+      <c r="M14" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N14" s="26">
         <v>3867</v>
       </c>
-      <c r="O14" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P14" s="29">
+      <c r="O14" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="26">
         <v>3880</v>
       </c>
-      <c r="Q14" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R14" s="29">
+      <c r="Q14" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" s="26">
         <v>3893</v>
       </c>
-      <c r="S14" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A15" s="23" t="s">
+      <c r="S14" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="21">
         <v>2629.42</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="24">
+      <c r="C15" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="21">
         <v>2637.29</v>
       </c>
-      <c r="E15" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="24">
+      <c r="E15" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="21">
         <v>2657.38</v>
       </c>
-      <c r="G15" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="24">
+      <c r="G15" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="21">
         <v>2668.39</v>
       </c>
-      <c r="I15" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="24">
+      <c r="I15" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="21">
         <v>2669.85</v>
       </c>
-      <c r="K15" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" s="24">
+      <c r="K15" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="21">
         <v>2671.66</v>
       </c>
-      <c r="M15" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N15" s="24">
+      <c r="M15" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="21">
         <v>2673.47</v>
       </c>
-      <c r="O15" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P15" s="24">
+      <c r="O15" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="21">
         <v>2675.28</v>
       </c>
-      <c r="Q15" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R15" s="24">
+      <c r="Q15" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" s="21">
         <v>2677.09</v>
       </c>
-      <c r="S15" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A16" s="23" t="s">
+      <c r="S15" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="24">
         <v>531.44000000000005</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="29">
+      <c r="C16" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="26">
         <v>571.6</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="27">
+      <c r="E16" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="24">
         <v>586.49</v>
       </c>
-      <c r="G16" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="27">
+      <c r="G16" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="24">
         <v>624.67999999999995</v>
       </c>
-      <c r="I16" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" s="27">
+      <c r="I16" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="24">
         <v>624.66</v>
       </c>
-      <c r="K16" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="29">
+      <c r="K16" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="26">
         <v>625.6</v>
       </c>
-      <c r="M16" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N16" s="27">
+      <c r="M16" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16" s="24">
         <v>626.55999999999995</v>
       </c>
-      <c r="O16" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P16" s="29">
+      <c r="O16" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" s="26">
         <v>627.5</v>
       </c>
-      <c r="Q16" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R16" s="27">
+      <c r="Q16" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R16" s="24">
         <v>628.44000000000005</v>
       </c>
-      <c r="S16" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A17" s="23" t="s">
+      <c r="S16" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="23">
         <v>11300</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="26">
+      <c r="C17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="23">
         <v>11354</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="26">
+      <c r="E17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="23">
         <v>11409</v>
       </c>
-      <c r="G17" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="26">
+      <c r="G17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="23">
         <v>11419</v>
       </c>
-      <c r="I17" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="26">
+      <c r="I17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="23">
         <v>11419</v>
       </c>
-      <c r="K17" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L17" s="26">
+      <c r="K17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="23">
         <v>11419</v>
       </c>
-      <c r="M17" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N17" s="26">
+      <c r="M17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N17" s="23">
         <v>11419</v>
       </c>
-      <c r="O17" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P17" s="26">
+      <c r="O17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="23">
         <v>11419</v>
       </c>
-      <c r="Q17" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R17" s="26">
+      <c r="Q17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R17" s="23">
         <v>11419</v>
       </c>
-      <c r="S17" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A18" s="23" t="s">
+      <c r="S17" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="26">
         <v>2205.9</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="27">
+      <c r="C18" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="24">
         <v>2238.89</v>
       </c>
-      <c r="E18" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="27">
+      <c r="E18" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="24">
         <v>2336.02</v>
       </c>
-      <c r="G18" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="27">
+      <c r="G18" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="24">
         <v>2421.0100000000002</v>
       </c>
-      <c r="I18" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" s="27">
+      <c r="I18" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="24">
         <v>2421.25</v>
       </c>
-      <c r="K18" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="29">
+      <c r="K18" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="26">
         <v>2438.4</v>
       </c>
-      <c r="M18" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N18" s="29">
+      <c r="M18" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="26">
         <v>2438.4</v>
       </c>
-      <c r="O18" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P18" s="29">
+      <c r="O18" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" s="26">
         <v>2438.4</v>
       </c>
-      <c r="Q18" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R18" s="29">
+      <c r="Q18" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R18" s="26">
         <v>2438.4</v>
       </c>
-      <c r="S18" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A19" s="23" t="s">
+      <c r="S18" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="21">
         <v>461.64</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="24">
+      <c r="C19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="21">
         <v>630.36</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="24">
+      <c r="E19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="21">
         <v>720.38</v>
       </c>
-      <c r="G19" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="24">
+      <c r="G19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="21">
         <v>754.67</v>
       </c>
-      <c r="I19" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J19" s="24">
+      <c r="I19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="21">
         <v>762.35</v>
       </c>
-      <c r="K19" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="24">
+      <c r="K19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="21">
         <v>770.02</v>
       </c>
-      <c r="M19" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N19" s="24">
+      <c r="M19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N19" s="21">
         <v>774.02</v>
       </c>
-      <c r="O19" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" s="24">
+      <c r="O19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" s="21">
         <v>778.02</v>
       </c>
-      <c r="Q19" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R19" s="24">
+      <c r="Q19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R19" s="21">
         <v>782.02</v>
       </c>
-      <c r="S19" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A20" s="23" t="s">
+      <c r="S19" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="27">
+      <c r="B20" s="24">
         <v>3298.55</v>
       </c>
-      <c r="C20" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="27">
+      <c r="C20" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="24">
         <v>3600.23</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="29">
+      <c r="E20" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="26">
         <v>3901.8</v>
       </c>
-      <c r="G20" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="29">
+      <c r="G20" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="26">
         <v>3901.8</v>
       </c>
-      <c r="I20" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J20" s="29">
+      <c r="I20" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="26">
         <v>3901.8</v>
       </c>
-      <c r="K20" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L20" s="29">
+      <c r="K20" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="26">
         <v>3901.8</v>
       </c>
-      <c r="M20" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N20" s="29">
+      <c r="M20" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" s="26">
         <v>3901.8</v>
       </c>
-      <c r="O20" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" s="29">
+      <c r="O20" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" s="26">
         <v>3901.8</v>
       </c>
-      <c r="Q20" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R20" s="29">
+      <c r="Q20" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R20" s="26">
         <v>3901.8</v>
       </c>
-      <c r="S20" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A21" s="23" t="s">
+      <c r="S20" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="21">
         <v>13904.66</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="24">
+      <c r="C21" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="21">
         <v>17093.93</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="24">
+      <c r="E21" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="21">
         <v>18545.34</v>
       </c>
-      <c r="G21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="24">
+      <c r="G21" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="21">
         <v>18551.18</v>
       </c>
-      <c r="I21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" s="24">
+      <c r="I21" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="21">
         <v>18555.240000000002</v>
       </c>
-      <c r="K21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L21" s="26">
+      <c r="K21" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="23">
         <v>18559.3</v>
       </c>
-      <c r="M21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N21" s="24">
+      <c r="M21" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N21" s="21">
         <v>18563.59</v>
       </c>
-      <c r="O21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P21" s="24">
+      <c r="O21" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" s="21">
         <v>18567.88</v>
       </c>
-      <c r="Q21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R21" s="24">
+      <c r="Q21" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R21" s="21">
         <v>18572.169999999998</v>
       </c>
-      <c r="S21" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A22" s="23" t="s">
+      <c r="S21" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="26">
         <v>14436</v>
       </c>
-      <c r="C22" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="29">
+      <c r="C22" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="26">
         <v>15288</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="29">
+      <c r="E22" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="26">
         <v>16419</v>
       </c>
-      <c r="G22" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="29">
+      <c r="G22" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="26">
         <v>16836</v>
       </c>
-      <c r="I22" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J22" s="29">
+      <c r="I22" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="26">
         <v>16919.400000000001</v>
       </c>
-      <c r="K22" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L22" s="29">
+      <c r="K22" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="26">
         <v>17002.8</v>
       </c>
-      <c r="M22" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N22" s="29">
+      <c r="M22" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N22" s="26">
         <v>17086.2</v>
       </c>
-      <c r="O22" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P22" s="29">
+      <c r="O22" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" s="26">
         <v>17169.599999999999</v>
       </c>
-      <c r="Q22" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R22" s="29">
+      <c r="Q22" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R22" s="26">
         <v>17253</v>
       </c>
-      <c r="S22" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A23" s="23" t="s">
+      <c r="S22" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="23">
         <v>1850</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="26">
+      <c r="C23" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="23">
         <v>1885</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="26">
+      <c r="E23" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="23">
         <v>1920</v>
       </c>
-      <c r="G23" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="26">
+      <c r="G23" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="23">
         <v>1922</v>
       </c>
-      <c r="I23" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" s="24">
+      <c r="I23" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="21">
         <v>1924.12</v>
       </c>
-      <c r="K23" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L23" s="24">
+      <c r="K23" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="21">
         <v>1931.61</v>
       </c>
-      <c r="M23" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N23" s="24">
+      <c r="M23" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="21">
         <v>1934.11</v>
       </c>
-      <c r="O23" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P23" s="24">
+      <c r="O23" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" s="21">
         <v>1936.61</v>
       </c>
-      <c r="Q23" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R23" s="24">
+      <c r="Q23" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R23" s="21">
         <v>1939.11</v>
       </c>
-      <c r="S23" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A24" s="23" t="s">
+      <c r="S23" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="24">
         <v>7589.75</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="27">
+      <c r="C24" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="24">
         <v>8369.25</v>
       </c>
-      <c r="E24" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="27">
+      <c r="E24" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="24">
         <v>9028.0400000000009</v>
       </c>
-      <c r="G24" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="27">
+      <c r="G24" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="24">
         <v>9297.08</v>
       </c>
-      <c r="I24" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J24" s="27">
+      <c r="I24" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="24">
         <v>9350.89</v>
       </c>
-      <c r="K24" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L24" s="29">
+      <c r="K24" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="26">
         <v>9404.7000000000007</v>
       </c>
-      <c r="M24" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N24" s="27">
+      <c r="M24" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N24" s="24">
         <v>9458.51</v>
       </c>
-      <c r="O24" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P24" s="27">
+      <c r="O24" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" s="24">
         <v>9512.32</v>
       </c>
-      <c r="Q24" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R24" s="27">
+      <c r="Q24" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R24" s="24">
         <v>9566.1299999999992</v>
       </c>
-      <c r="S24" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A25" s="23" t="s">
+      <c r="S24" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="23">
         <v>3173</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="26">
+      <c r="C25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="23">
         <v>3241</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="24">
+      <c r="E25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="21">
         <v>3372.12</v>
       </c>
-      <c r="G25" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="24">
+      <c r="G25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="21">
         <v>3391.44</v>
       </c>
-      <c r="I25" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" s="24">
+      <c r="I25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="21">
         <v>3395.31</v>
       </c>
-      <c r="K25" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L25" s="24">
+      <c r="K25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="21">
         <v>3399.18</v>
       </c>
-      <c r="M25" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N25" s="24">
+      <c r="M25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N25" s="21">
         <v>3403.05</v>
       </c>
-      <c r="O25" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P25" s="24">
+      <c r="O25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" s="21">
         <v>3406.92</v>
       </c>
-      <c r="Q25" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R25" s="24">
+      <c r="Q25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R25" s="21">
         <v>3410.79</v>
       </c>
-      <c r="S25" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A26" s="23" t="s">
+      <c r="S25" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="26">
         <v>1945</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="29">
+      <c r="C26" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="26">
         <v>2020</v>
       </c>
-      <c r="E26" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="29">
+      <c r="E26" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="26">
         <v>2170</v>
       </c>
-      <c r="G26" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="29">
+      <c r="G26" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="26">
         <v>2187</v>
       </c>
-      <c r="I26" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J26" s="29">
+      <c r="I26" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="26">
         <v>2190</v>
       </c>
-      <c r="K26" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L26" s="29">
+      <c r="K26" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="26">
         <v>2196</v>
       </c>
-      <c r="M26" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N26" s="29">
+      <c r="M26" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" s="26">
         <v>2198</v>
       </c>
-      <c r="O26" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P26" s="29">
+      <c r="O26" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" s="26">
         <v>2200</v>
       </c>
-      <c r="Q26" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R26" s="29">
+      <c r="Q26" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R26" s="26">
         <v>2201</v>
       </c>
-      <c r="S26" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A27" s="23" t="s">
+      <c r="S26" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="23">
         <v>85.8</v>
       </c>
-      <c r="C27" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="26">
+      <c r="C27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="23">
         <v>86.7</v>
       </c>
-      <c r="E27" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="26">
+      <c r="E27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="23">
         <v>88.7</v>
       </c>
-      <c r="G27" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="26">
+      <c r="G27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="23">
         <v>88.7</v>
       </c>
-      <c r="I27" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" s="26">
+      <c r="I27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="23">
         <v>88.7</v>
       </c>
-      <c r="K27" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L27" s="26">
+      <c r="K27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" s="23">
         <v>88.7</v>
       </c>
-      <c r="M27" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N27" s="26">
+      <c r="M27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N27" s="23">
         <v>88.7</v>
       </c>
-      <c r="O27" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P27" s="26">
+      <c r="O27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" s="23">
         <v>88.7</v>
       </c>
-      <c r="Q27" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R27" s="26">
+      <c r="Q27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R27" s="23">
         <v>88.7</v>
       </c>
-      <c r="S27" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A28" s="23" t="s">
+      <c r="S27" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="26">
         <v>1813.9</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="27">
+      <c r="C28" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="24">
         <v>1921.17</v>
       </c>
-      <c r="E28" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="27">
+      <c r="E28" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="24">
         <v>2046.39</v>
       </c>
-      <c r="G28" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="27">
+      <c r="G28" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="24">
         <v>2060.8200000000002</v>
       </c>
-      <c r="I28" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" s="27">
+      <c r="I28" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="24">
         <v>2058.73</v>
       </c>
-      <c r="K28" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L28" s="27">
+      <c r="K28" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="24">
         <v>2057.27</v>
       </c>
-      <c r="M28" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N28" s="27">
+      <c r="M28" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N28" s="24">
         <v>2055.92</v>
       </c>
-      <c r="O28" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P28" s="27">
+      <c r="O28" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" s="24">
         <v>2054.4699999999998</v>
       </c>
-      <c r="Q28" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R28" s="27">
+      <c r="Q28" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R28" s="24">
         <v>2053.0100000000002</v>
       </c>
-      <c r="S28" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A29" s="23" t="s">
+      <c r="S28" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="21">
         <v>0.35</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="24">
+      <c r="C29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="21">
         <v>0.35</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="24">
+      <c r="E29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="21">
         <v>0.35</v>
       </c>
-      <c r="G29" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="24">
+      <c r="G29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="21">
         <v>0.35</v>
       </c>
-      <c r="I29" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J29" s="24">
+      <c r="I29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="21">
         <v>0.38</v>
       </c>
-      <c r="K29" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L29" s="24">
+      <c r="K29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" s="21">
         <v>0.42</v>
       </c>
-      <c r="M29" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N29" s="24">
+      <c r="M29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" s="21">
         <v>0.46</v>
       </c>
-      <c r="O29" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P29" s="24">
+      <c r="O29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" s="21">
         <v>0.46</v>
       </c>
-      <c r="Q29" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R29" s="24">
+      <c r="Q29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R29" s="21">
         <v>0.46</v>
       </c>
-      <c r="S29" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A30" s="23" t="s">
+      <c r="S29" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="24">
         <v>345.33</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="29">
+      <c r="C30" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="26">
         <v>359.5</v>
       </c>
-      <c r="E30" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="27">
+      <c r="E30" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="24">
         <v>373.48</v>
       </c>
-      <c r="G30" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="27">
+      <c r="G30" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="24">
         <v>364.83</v>
       </c>
-      <c r="I30" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J30" s="27">
+      <c r="I30" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" s="24">
         <v>365.76</v>
       </c>
-      <c r="K30" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L30" s="29">
+      <c r="K30" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="26">
         <v>366.7</v>
       </c>
-      <c r="M30" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N30" s="27">
+      <c r="M30" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N30" s="24">
         <v>367.63</v>
       </c>
-      <c r="O30" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P30" s="27">
+      <c r="O30" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" s="24">
         <v>368.57</v>
       </c>
-      <c r="Q30" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R30" s="29">
+      <c r="Q30" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R30" s="26">
         <v>369.5</v>
       </c>
-      <c r="S30" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A31" s="23" t="s">
+      <c r="S30" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="21">
         <v>3775.67</v>
       </c>
-      <c r="C31" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="24">
+      <c r="C31" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="21">
         <v>3838.14</v>
       </c>
-      <c r="E31" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="26">
+      <c r="E31" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="23">
         <v>3863.2</v>
       </c>
-      <c r="G31" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="24">
+      <c r="G31" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="21">
         <v>3881.19</v>
       </c>
-      <c r="I31" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J31" s="24">
+      <c r="I31" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="21">
         <v>3884.79</v>
       </c>
-      <c r="K31" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L31" s="24">
+      <c r="K31" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L31" s="21">
         <v>3888.38</v>
       </c>
-      <c r="M31" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N31" s="24">
+      <c r="M31" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N31" s="21">
         <v>3891.97</v>
       </c>
-      <c r="O31" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P31" s="24">
+      <c r="O31" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" s="21">
         <v>3895.56</v>
       </c>
-      <c r="Q31" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R31" s="24">
+      <c r="Q31" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R31" s="21">
         <v>3899.15</v>
       </c>
-      <c r="S31" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A32" s="23" t="s">
+      <c r="S31" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="26">
         <v>8882</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="29">
+      <c r="C32" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="26">
         <v>9059</v>
       </c>
-      <c r="E32" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="29">
+      <c r="E32" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="26">
         <v>9329</v>
       </c>
-      <c r="G32" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="29">
+      <c r="G32" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="26">
         <v>9420</v>
       </c>
-      <c r="I32" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J32" s="29">
+      <c r="I32" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="26">
         <v>9435</v>
       </c>
-      <c r="K32" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L32" s="29">
+      <c r="K32" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" s="26">
         <v>9447</v>
       </c>
-      <c r="M32" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N32" s="29">
+      <c r="M32" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N32" s="26">
         <v>9459</v>
       </c>
-      <c r="O32" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P32" s="29">
+      <c r="O32" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" s="26">
         <v>9471</v>
       </c>
-      <c r="Q32" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R32" s="29">
+      <c r="Q32" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R32" s="26">
         <v>9483</v>
       </c>
-      <c r="S32" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A33" s="23" t="s">
+      <c r="S32" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="23">
         <v>3399</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="26">
+      <c r="C33" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="23">
         <v>3281</v>
       </c>
-      <c r="E33" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="26">
+      <c r="E33" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="23">
         <v>3252</v>
       </c>
-      <c r="G33" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="26">
+      <c r="G33" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="23">
         <v>3312</v>
       </c>
-      <c r="I33" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J33" s="26">
+      <c r="I33" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="23">
         <v>3312</v>
       </c>
-      <c r="K33" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L33" s="26">
+      <c r="K33" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L33" s="23">
         <v>3312</v>
       </c>
-      <c r="M33" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N33" s="26">
+      <c r="M33" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N33" s="23">
         <v>3312</v>
       </c>
-      <c r="O33" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P33" s="26">
+      <c r="O33" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33" s="23">
         <v>3312</v>
       </c>
-      <c r="Q33" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R33" s="26">
+      <c r="Q33" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R33" s="23">
         <v>3312</v>
       </c>
-      <c r="S33" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A34" s="23" t="s">
+      <c r="S33" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="29">
+      <c r="B34" s="26">
         <v>6371</v>
       </c>
-      <c r="C34" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="29">
+      <c r="C34" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="26">
         <v>6366</v>
       </c>
-      <c r="E34" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="29">
+      <c r="E34" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" s="26">
         <v>6515</v>
       </c>
-      <c r="G34" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="27">
+      <c r="G34" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="24">
         <v>6900.96</v>
       </c>
-      <c r="I34" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J34" s="27">
+      <c r="I34" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J34" s="24">
         <v>6929.05</v>
       </c>
-      <c r="K34" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L34" s="27">
+      <c r="K34" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L34" s="24">
         <v>6929.05</v>
       </c>
-      <c r="M34" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N34" s="27">
+      <c r="M34" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N34" s="24">
         <v>6929.05</v>
       </c>
-      <c r="O34" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P34" s="27">
+      <c r="O34" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" s="24">
         <v>6929.05</v>
       </c>
-      <c r="Q34" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R34" s="27">
+      <c r="Q34" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R34" s="24">
         <v>6929.05</v>
       </c>
-      <c r="S34" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A35" s="23" t="s">
+      <c r="S34" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="23">
         <v>1188</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="26">
+      <c r="C35" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="23">
         <v>1233</v>
       </c>
-      <c r="E35" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="26">
+      <c r="E35" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="23">
         <v>1247</v>
       </c>
-      <c r="G35" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H35" s="26">
+      <c r="G35" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="23">
         <v>1248</v>
       </c>
-      <c r="I35" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J35" s="24">
+      <c r="I35" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J35" s="21">
         <v>1245.97</v>
       </c>
-      <c r="K35" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L35" s="24">
+      <c r="K35" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L35" s="21">
         <v>1243.93</v>
       </c>
-      <c r="M35" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N35" s="26">
+      <c r="M35" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N35" s="23">
         <v>1241.9000000000001</v>
       </c>
-      <c r="O35" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P35" s="24">
+      <c r="O35" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P35" s="21">
         <v>1239.8599999999999</v>
       </c>
-      <c r="Q35" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R35" s="24">
+      <c r="Q35" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R35" s="21">
         <v>1237.83</v>
       </c>
-      <c r="S35" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A36" s="23" t="s">
+      <c r="S35" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B36" s="24">
         <v>1902.48</v>
       </c>
-      <c r="C36" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="27">
+      <c r="C36" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="24">
         <v>1901.41</v>
       </c>
-      <c r="E36" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="27">
+      <c r="E36" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="24">
         <v>1917.91</v>
       </c>
-      <c r="G36" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" s="27">
+      <c r="G36" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="24">
         <v>1921.75</v>
       </c>
-      <c r="I36" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J36" s="27">
+      <c r="I36" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J36" s="24">
         <v>1923.37</v>
       </c>
-      <c r="K36" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L36" s="29">
+      <c r="K36" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L36" s="26">
         <v>1925.9</v>
       </c>
-      <c r="M36" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N36" s="29">
+      <c r="M36" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N36" s="26">
         <v>1925.9</v>
       </c>
-      <c r="O36" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P36" s="29">
+      <c r="O36" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" s="26">
         <v>1925.9</v>
       </c>
-      <c r="Q36" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R36" s="29">
+      <c r="Q36" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R36" s="26">
         <v>1925.9</v>
       </c>
-      <c r="S36" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A37" s="23" t="s">
+      <c r="S36" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="21">
         <v>21875.33</v>
       </c>
-      <c r="C37" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="24">
+      <c r="C37" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="21">
         <v>22445.64</v>
       </c>
-      <c r="E37" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="26">
+      <c r="E37" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="23">
         <v>22242</v>
       </c>
-      <c r="G37" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="26">
+      <c r="G37" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="23">
         <v>22409</v>
       </c>
-      <c r="I37" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" s="26">
+      <c r="I37" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J37" s="23">
         <v>22409</v>
       </c>
-      <c r="K37" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L37" s="26">
+      <c r="K37" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L37" s="23">
         <v>22409</v>
       </c>
-      <c r="M37" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N37" s="26">
+      <c r="M37" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N37" s="23">
         <v>22409</v>
       </c>
-      <c r="O37" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P37" s="26">
+      <c r="O37" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" s="23">
         <v>22409</v>
       </c>
-      <c r="Q37" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R37" s="26">
+      <c r="Q37" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R37" s="23">
         <v>22409</v>
       </c>
-      <c r="S37" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A38" s="23" t="s">
+      <c r="S37" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B38" s="26">
         <v>28063</v>
       </c>
-      <c r="C38" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="29">
+      <c r="C38" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="26">
         <v>28163</v>
       </c>
-      <c r="E38" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="29">
+      <c r="E38" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="26">
         <v>28073</v>
       </c>
-      <c r="G38" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" s="29">
+      <c r="G38" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="26">
         <v>27980</v>
       </c>
-      <c r="I38" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J38" s="29">
+      <c r="I38" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" s="26">
         <v>27980</v>
       </c>
-      <c r="K38" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L38" s="29">
+      <c r="K38" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L38" s="26">
         <v>27980</v>
       </c>
-      <c r="M38" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N38" s="29">
+      <c r="M38" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N38" s="26">
         <v>27980</v>
       </c>
-      <c r="O38" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P38" s="29">
+      <c r="O38" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" s="26">
         <v>27980</v>
       </c>
-      <c r="Q38" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R38" s="29">
+      <c r="Q38" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R38" s="26">
         <v>27980</v>
       </c>
-      <c r="S38" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A39" s="23" t="s">
+      <c r="S38" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="23">
         <v>6.5</v>
       </c>
-      <c r="C39" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="26">
+      <c r="C39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="23">
         <v>6.7</v>
       </c>
-      <c r="E39" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="26">
+      <c r="E39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="23">
         <v>6.7</v>
       </c>
-      <c r="G39" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" s="26">
+      <c r="G39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="23">
         <v>6.7</v>
       </c>
-      <c r="I39" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J39" s="26">
+      <c r="I39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J39" s="23">
         <v>6.7</v>
       </c>
-      <c r="K39" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L39" s="26">
+      <c r="K39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L39" s="23">
         <v>6.7</v>
       </c>
-      <c r="M39" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N39" s="26">
+      <c r="M39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N39" s="23">
         <v>6.7</v>
       </c>
-      <c r="O39" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P39" s="26">
+      <c r="O39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" s="23">
         <v>6.7</v>
       </c>
-      <c r="Q39" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R39" s="26">
+      <c r="Q39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R39" s="23">
         <v>6.7</v>
       </c>
-      <c r="S39" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A40" s="23" t="s">
+      <c r="S39" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="26">
         <v>12132</v>
       </c>
-      <c r="C40" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="29">
+      <c r="C40" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="26">
         <v>12113</v>
       </c>
-      <c r="E40" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="29">
+      <c r="E40" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="26">
         <v>12102</v>
       </c>
-      <c r="G40" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" s="29">
+      <c r="G40" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" s="26">
         <v>12141</v>
       </c>
-      <c r="I40" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J40" s="29">
+      <c r="I40" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" s="26">
         <v>12148.8</v>
       </c>
-      <c r="K40" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L40" s="29">
+      <c r="K40" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L40" s="26">
         <v>12156.6</v>
       </c>
-      <c r="M40" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N40" s="29">
+      <c r="M40" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N40" s="26">
         <v>12164.4</v>
       </c>
-      <c r="O40" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P40" s="29">
+      <c r="O40" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" s="26">
         <v>12172.2</v>
       </c>
-      <c r="Q40" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R40" s="29">
+      <c r="Q40" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R40" s="26">
         <v>12180</v>
       </c>
-      <c r="S40" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A41" s="23" t="s">
+      <c r="S40" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="23">
         <v>1153.5</v>
       </c>
-      <c r="C41" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="24">
+      <c r="C41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="21">
         <v>1196.18</v>
       </c>
-      <c r="E41" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="24">
+      <c r="E41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="21">
         <v>1234.72</v>
       </c>
-      <c r="G41" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H41" s="24">
+      <c r="G41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="21">
         <v>1251.9100000000001</v>
       </c>
-      <c r="I41" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J41" s="24">
+      <c r="I41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" s="21">
         <v>1255.3499999999999</v>
       </c>
-      <c r="K41" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L41" s="24">
+      <c r="K41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L41" s="21">
         <v>1258.79</v>
       </c>
-      <c r="M41" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N41" s="24">
+      <c r="M41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N41" s="21">
         <v>1262.23</v>
       </c>
-      <c r="O41" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P41" s="24">
+      <c r="O41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41" s="21">
         <v>1265.67</v>
       </c>
-      <c r="Q41" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R41" s="24">
+      <c r="Q41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R41" s="21">
         <v>1269.1099999999999</v>
       </c>
-      <c r="S41" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A42" s="23" t="s">
+      <c r="S41" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B42" s="26">
         <v>2778</v>
       </c>
-      <c r="C42" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="29">
+      <c r="C42" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="26">
         <v>2954</v>
       </c>
-      <c r="E42" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="29">
+      <c r="E42" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="26">
         <v>3059</v>
       </c>
-      <c r="G42" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H42" s="29">
+      <c r="G42" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="26">
         <v>3155</v>
       </c>
-      <c r="I42" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J42" s="29">
+      <c r="I42" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J42" s="26">
         <v>3159</v>
       </c>
-      <c r="K42" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="L42" s="29">
+      <c r="K42" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L42" s="26">
         <v>3164</v>
       </c>
-      <c r="M42" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="N42" s="29">
+      <c r="M42" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="N42" s="26">
         <v>3173</v>
       </c>
-      <c r="O42" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="P42" s="29">
+      <c r="O42" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" s="26">
         <v>3182</v>
       </c>
-      <c r="Q42" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="R42" s="29">
+      <c r="Q42" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R42" s="26">
         <v>3190</v>
       </c>
-      <c r="S42" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A43" s="23" t="s">
+      <c r="S42" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="23">
         <v>2210</v>
       </c>
-      <c r="C43" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="24">
+      <c r="C43" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="21">
         <v>2111.65</v>
       </c>
-      <c r="E43" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="24">
+      <c r="E43" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="21">
         <v>2102.66</v>
       </c>
-      <c r="G43" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="H43" s="26">
+      <c r="G43" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="23">
         <v>2160.5</v>
       </c>
-      <c r="I43" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J43" s="24">
+      <c r="I43" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" s="21">
         <v>2176.5100000000002</v>
       </c>
-      <c r="K43" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="L43" s="24">
+      <c r="K43" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L43" s="21">
         <v>2187.91</v>
       </c>
-      <c r="M43" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="N43" s="24">
+      <c r="M43" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N43" s="21">
         <v>2187.91</v>
       </c>
-      <c r="O43" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="P43" s="24">
+      <c r="O43" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" s="21">
         <v>2187.91</v>
       </c>
-      <c r="Q43" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="R43" s="24">
+      <c r="Q43" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R43" s="21">
         <v>2187.91</v>
       </c>
-      <c r="S43" s="25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A45" s="19" t="s">
+      <c r="S43" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+    </row>
+    <row r="45" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A46" s="19" t="s">
+    <row r="46" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="14" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3872,6 +3866,7 @@
     <mergeCell ref="L9:M9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3880,289 +3875,177 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:I54"/>
+  <dimension ref="B1:G54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="0.1328125" customWidth="1"/>
-    <col min="2" max="2" width="28.06640625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.984375E-2" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B4" s="61"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="57"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="57"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="57"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B19" s="62" t="s">
+    <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="51"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="48"/>
+      <c r="G5" s="49"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="48"/>
+      <c r="G6" s="49"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="48"/>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="48"/>
+      <c r="G8" s="49"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="48"/>
+      <c r="G9" s="49"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="48"/>
+      <c r="G10" s="49"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="48"/>
+      <c r="G11" s="49"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="48"/>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="48"/>
+      <c r="G13" s="49"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="48"/>
+      <c r="G14" s="49"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="48"/>
+      <c r="G15" s="49"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="48"/>
+      <c r="G16" s="49"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="48"/>
+      <c r="G17" s="49"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="48"/>
+      <c r="G18" s="49"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B19" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58" t="s">
+      <c r="G19" s="49"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B20" s="48"/>
+      <c r="C20" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B21" s="57" t="s">
+      <c r="G20" s="49"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B21" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21">
         <v>105</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21">
         <v>151</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B22" s="57" t="s">
+      <c r="G21" s="49"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B22" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="C22" s="58">
+      <c r="C22">
         <v>55</v>
       </c>
-      <c r="D22" s="58">
+      <c r="D22">
         <v>55</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B23" s="57" t="s">
+      <c r="G22" s="49"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B23" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="58">
+      <c r="C23">
         <v>20</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23">
         <v>36</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B24" s="65" t="s">
+      <c r="G23" s="49"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B24" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="27">
         <f>SUM(C21:C23)</f>
         <v>180</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="27">
         <f>SUM(D21:D23)</f>
         <v>242</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-    </row>
-    <row r="25" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B25" s="64"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="60"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="G24" s="49"/>
+    </row>
+    <row r="25" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="54"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="50"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28">
         <f>D24-C24</f>
         <v>62</v>
@@ -4171,8 +4054,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B29" s="8">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B29" s="6">
         <f>B28*10^6*About!A46</f>
         <v>153205100</v>
       </c>
@@ -4180,24 +4063,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B31" s="8" t="s">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B32" s="8">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B32" s="6">
         <v>424</v>
       </c>
       <c r="C32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B33" s="8">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="6">
         <f>B32*10^6*About!A46</f>
         <v>1047725200</v>
       </c>
@@ -4205,8 +4088,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B34" s="11">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="9">
         <f>B29/B33</f>
         <v>0.14622641509433962</v>
       </c>
@@ -4214,183 +4097,180 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="8" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37" s="9" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B38" s="8" t="s">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B39" s="8" t="s">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B40" s="8" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B41" s="8" t="s">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B42" s="8"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B43" s="8" t="s">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B43" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B44" s="8"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B45" s="33" t="s">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="6"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="E45" s="33" t="s">
+      <c r="E45" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="G45" s="33" t="s">
+      <c r="G45" s="29" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B46" s="31" t="s">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B46" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="28">
         <v>5</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="28">
         <v>1</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="49">
+      <c r="F46" s="42">
         <f>D46*10^6*About!A46</f>
         <v>2471050</v>
       </c>
-      <c r="G46" s="49">
+      <c r="G46" s="42">
         <f>F46/C46</f>
         <v>494210</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B47" s="31" t="s">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="28">
         <v>7</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="28">
         <v>700</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E47" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="F47" s="49">
+      <c r="F47" s="42">
         <f>D47*1000*About!A46</f>
         <v>1729735</v>
       </c>
-      <c r="G47" s="49">
-        <f t="shared" ref="G47:G49" si="0">F47/C47</f>
+      <c r="G47" s="42">
+        <f>F47/C47</f>
         <v>247105</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B48" s="31" t="s">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B48" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="28">
         <v>6</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="28">
         <v>300</v>
       </c>
-      <c r="E48" s="31" t="s">
+      <c r="E48" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="F48" s="49">
+      <c r="F48" s="42">
         <f>D48*1000*About!A46</f>
         <v>741315</v>
       </c>
-      <c r="G48" s="49">
-        <f t="shared" si="0"/>
+      <c r="G48" s="42">
+        <f t="shared" ref="G47:G49" si="0">F48/C48</f>
         <v>123552.5</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B49" s="31" t="s">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B49" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="28">
         <v>6</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="28">
         <v>510</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E49" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="F49" s="49">
+      <c r="F49" s="42">
         <f>D49*1000*About!A46</f>
         <v>1260235.5</v>
       </c>
-      <c r="G49" s="49">
-        <f t="shared" si="0"/>
+      <c r="G49" s="42">
+        <f>F49/C49</f>
         <v>210039.25</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B50" s="8"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B51" s="8" t="s">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B50" s="6"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B51" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B52" s="8"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B53" s="66">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B52" s="6"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B53" s="56">
         <f>AVERAGE(G46:G49)</f>
         <v>268726.6875</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B54" s="15">
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B54" s="12">
         <f>B29/B53</f>
         <v>570.11494252873558</v>
       </c>
@@ -4411,132 +4291,134 @@
   </sheetPr>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.86328125" customWidth="1"/>
-    <col min="10" max="10" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="I5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="28">
         <v>2500</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="35">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="I8" s="41">
+      <c r="I8" s="34">
         <v>2016</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="30">
         <f>$J$7/$K$7*K8</f>
         <v>1090.4255319148936</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="35">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="I9" s="41">
+      <c r="I9" s="34">
         <v>2017</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="30">
         <f t="shared" ref="J9:J10" si="0">$J$7/$K$7*K9</f>
         <v>1156.9148936170211</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="35">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="I10" s="42">
+      <c r="I10" s="36">
         <v>2018</v>
       </c>
-      <c r="J10" s="43">
-        <f t="shared" si="0"/>
+      <c r="J10" s="37">
+        <f>$J$7/$K$7*K10</f>
         <v>1117.0212765957447</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="38">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="12"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="12"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <f>J10</f>
         <v>1117.0212765957447</v>
@@ -4545,7 +4427,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <f>A21*1000*About!A46</f>
         <v>2760215.4255319149</v>
@@ -4554,76 +4436,76 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="16">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="13">
         <v>0.02</v>
       </c>
       <c r="B37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="67">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="57">
         <f>A22*A37</f>
         <v>55204.308510638301</v>
       </c>
@@ -4643,110 +4525,91 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="32" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="13">
-        <v>0</v>
-      </c>
-      <c r="B26" s="14" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>0</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="8"/>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4762,56 +4625,58 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.265625" customWidth="1"/>
-    <col min="2" max="2" width="17.73046875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.86328125" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" style="6"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f>'Eurostat - FOR_AREA'!J12</f>
-        <v>161455.92000000001</v>
+        <f>'Eurostat - FOR_AREA'!J11</f>
+        <v>158296.92000000001</v>
       </c>
       <c r="B4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="8">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <f>A4*1000*About!A46</f>
-        <v>398965651.116</v>
+        <v>391159604.16600001</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="54">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="45">
         <f>About!C39</f>
         <v>0.52</v>
       </c>
@@ -4819,81 +4684,81 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="8">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
         <f>A5*(1-A8)</f>
-        <v>191503512.53568</v>
+        <v>187756609.99967998</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="8"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6"/>
       <c r="B10"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="16">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="13">
         <v>0.5</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="66">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="56">
         <f>A9*A22</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
@@ -4911,16 +4776,18 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.265625" customWidth="1"/>
-    <col min="2" max="2" width="10.86328125" customWidth="1"/>
-    <col min="3" max="36" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.26953125" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" customWidth="1"/>
+    <col min="3" max="36" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -5030,7 +4897,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5175,7 +5042,7 @@
         <v>55204.308510638301</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5320,152 +5187,152 @@
         <v>268726.6875</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="C4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="D4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="E4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="F4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="G4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="H4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="I4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="J4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="K4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="L4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="M4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="N4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="O4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="P4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="Q4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="R4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="S4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="T4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="U4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="V4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="W4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="X4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="Y4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="Z4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="AA4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="AB4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="AC4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="AD4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="AE4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="AF4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="AG4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="AH4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="AI4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
+        <v>93878304.999839991</v>
       </c>
       <c r="AJ4" s="3">
         <f>'Impr Forest Mgmt'!$A25</f>
-        <v>95751756.267839998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+        <v>93878304.999839991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5610,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5720,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
+++ b/InputData/land/PLANAbPiaSY/Potential Land Area Newly Affected by Pol in a Single Yr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\land\PLANAbPiaSY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\land\PLANAbPiaSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1502825-F36D-4CA2-A1B9-AB1796547897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D57DA0-E230-4087-9E91-4A2E818FF32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="386">
   <si>
     <t>PLANAbPiaSY Potential Land Area Newly Affected by Policy in a Single Year</t>
   </si>
@@ -1136,15 +1136,6 @@
     <t>Policy Settings:</t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
     <t>Forest Management</t>
   </si>
   <si>
@@ -1256,13 +1247,13 @@
     <t>Afforestation and Reforestation Only</t>
   </si>
   <si>
-    <t>We phase in the expected forestry impacts so they reach their maximum in the year 2031, according to the following implementation schedule:</t>
-  </si>
-  <si>
     <t>We also adjust this variable to remove the potential implemented as part of Inflation Reduction Act</t>
   </si>
   <si>
     <t>calculations (see relevant tab for methodology).</t>
+  </si>
+  <si>
+    <t>We phase in the expected forestry impacts so they reach their maximum in the year 2032, according to the following implementation schedule:</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1532,7 @@
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1671,9 +1662,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1711,9 +1702,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1746,26 +1737,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1798,26 +1772,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1993,7 +1950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
@@ -2259,12 +2216,12 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -22276,8 +22233,8 @@
   </sheetPr>
   <dimension ref="A1:BL86"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22444,57 +22401,41 @@
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
-      <c r="B6" s="52" t="s">
-        <v>346</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>347</v>
-      </c>
-      <c r="D6" s="52" t="s">
-        <v>348</v>
-      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="G6" s="52"/>
       <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>349</v>
-      </c>
-      <c r="B7" s="52">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="C7" s="52">
-        <f t="shared" ref="C7:D8" si="0">B7</f>
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="D7" s="52">
-        <f t="shared" si="0"/>
-        <v>5.1999999999999998E-2</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="B7" s="63">
+        <f>B62</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
       <c r="G7" s="52"/>
       <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="B8" s="52">
-        <v>0.37</v>
-      </c>
-      <c r="C8" s="52">
-        <f t="shared" si="0"/>
-        <v>0.37</v>
-      </c>
-      <c r="D8" s="52">
-        <f t="shared" si="0"/>
-        <v>0.37</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="B8" s="64">
+        <f>B79</f>
+        <v>0.4</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
       <c r="G8" s="52"/>
       <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -22512,7 +22453,7 @@
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B11" s="54">
         <v>2020</v>
@@ -22521,7 +22462,7 @@
         <v>2022</v>
       </c>
       <c r="D11" s="54">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="E11" s="54">
         <v>2033</v>
@@ -22618,7 +22559,7 @@
     </row>
     <row r="14" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B14" s="54">
         <v>2020</v>
@@ -22627,10 +22568,10 @@
         <v>2022</v>
       </c>
       <c r="D14" s="54">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="E14" s="54">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="F14" s="54">
         <v>2050</v>
@@ -22902,7 +22843,7 @@
     </row>
     <row r="18" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B18" s="56">
         <f>SUM(B42:B43)*10^3/9</f>
@@ -23039,7 +22980,7 @@
     </row>
     <row r="20" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
@@ -23244,43 +23185,44 @@
         <v>0</v>
       </c>
       <c r="D22" s="58">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
+        <f>1/10</f>
+        <v>0.1</v>
       </c>
       <c r="E22" s="58">
-        <f t="shared" ref="E22:L22" si="1">D22+1/9</f>
-        <v>0.22222222222222221</v>
+        <f>D22+1/10</f>
+        <v>0.2</v>
       </c>
       <c r="F22" s="58">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="F22:M22" si="0">E22+1/10</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="G22" s="58">
-        <f t="shared" si="1"/>
-        <v>0.44444444444444442</v>
+        <f t="shared" si="0"/>
+        <v>0.4</v>
       </c>
       <c r="H22" s="58">
-        <f t="shared" si="1"/>
-        <v>0.55555555555555558</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="I22" s="58">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666674</v>
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
       <c r="J22" s="58">
-        <f t="shared" si="1"/>
-        <v>0.7777777777777779</v>
+        <f t="shared" si="0"/>
+        <v>0.7</v>
       </c>
       <c r="K22" s="58">
-        <f t="shared" si="1"/>
-        <v>0.88888888888888906</v>
+        <f t="shared" si="0"/>
+        <v>0.79999999999999993</v>
       </c>
       <c r="L22" s="58">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
       </c>
       <c r="M22" s="58">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="N22" s="58">
         <v>0</v>
@@ -23438,7 +23380,7 @@
     </row>
     <row r="24" spans="1:64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
@@ -23506,7 +23448,7 @@
     </row>
     <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B25" s="52">
         <v>0.78500000000000003</v>
@@ -23517,132 +23459,132 @@
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B28" s="54">
         <v>1.8</v>
       </c>
       <c r="C28" s="57"/>
       <c r="D28" s="57" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B29" s="54">
         <v>0.2</v>
       </c>
       <c r="C29" s="57"/>
       <c r="D29" s="57" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B30" s="54">
         <v>0.1</v>
       </c>
       <c r="C30" s="57"/>
       <c r="D30" s="57" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B31" s="54">
         <v>0.05</v>
       </c>
       <c r="C31" s="57"/>
       <c r="D31" s="57" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B32" s="54">
         <v>0.15</v>
       </c>
       <c r="C32" s="57"/>
       <c r="D32" s="57" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B33" s="54">
         <v>0.15</v>
       </c>
       <c r="C33" s="57"/>
       <c r="D33" s="57" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B34" s="54">
         <v>0.1</v>
       </c>
       <c r="C34" s="57"/>
       <c r="D34" s="57" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="57" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B35" s="54">
         <v>0.05</v>
       </c>
       <c r="C35" s="57"/>
       <c r="D35" s="57" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B36" s="54">
         <v>0.1</v>
       </c>
       <c r="C36" s="57"/>
       <c r="D36" s="57" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B37" s="54">
         <v>0.7</v>
       </c>
       <c r="C37" s="57"/>
       <c r="D37" s="57" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A38" s="57" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B38" s="54">
         <v>1.5</v>
@@ -23654,25 +23596,25 @@
     </row>
     <row r="39" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B39" s="54">
         <v>0.1</v>
       </c>
       <c r="C39" s="57"/>
       <c r="D39" s="57" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A41" s="55" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B41" s="54"/>
     </row>
     <row r="42" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B42" s="54">
         <f>SUM(B31:B37)</f>
@@ -23690,7 +23632,7 @@
     </row>
     <row r="45" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" spans="1:64" x14ac:dyDescent="0.25">
@@ -23698,7 +23640,7 @@
     </row>
     <row r="47" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A47" s="53" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B47" s="52"/>
       <c r="C47" s="52"/>
@@ -23766,7 +23708,7 @@
     </row>
     <row r="48" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B48" s="52">
         <v>2020</v>
@@ -23896,7 +23838,7 @@
     </row>
     <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" s="52" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B49" s="52">
         <v>0</v>
@@ -24026,7 +23968,7 @@
     </row>
     <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B50" s="52">
         <v>0</v>
@@ -24156,7 +24098,7 @@
     </row>
     <row r="51" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A51" s="52" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B51" s="52">
         <v>0</v>
@@ -24286,7 +24228,7 @@
     </row>
     <row r="52" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A52" s="52" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B52" s="52">
         <v>0</v>
@@ -24416,7 +24358,7 @@
     </row>
     <row r="53" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A53" s="52" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B53" s="52">
         <v>0</v>
@@ -24546,7 +24488,7 @@
     </row>
     <row r="54" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B54" s="52">
         <v>0</v>
@@ -24676,7 +24618,7 @@
     </row>
     <row r="55" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A55" s="52" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B55" s="52">
         <v>0</v>
@@ -24806,7 +24748,7 @@
     </row>
     <row r="56" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A56" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B56" s="52">
         <v>0</v>
@@ -24936,7 +24878,7 @@
     </row>
     <row r="57" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A57" s="52" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B57" s="52">
         <v>0</v>
@@ -25066,7 +25008,7 @@
     </row>
     <row r="59" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A59" s="52" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B59" s="60">
         <f>B42*B25*10^9</f>
@@ -25075,7 +25017,7 @@
     </row>
     <row r="60" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A60" s="52" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B60" s="60">
         <f>SUM(E49:M51)</f>
@@ -25085,7 +25027,7 @@
     </row>
     <row r="62" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A62" s="52" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B62" s="61">
         <v>4.7E-2</v>
@@ -25159,7 +25101,7 @@
     </row>
     <row r="64" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A64" s="53" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B64" s="52"/>
       <c r="C64" s="52"/>
@@ -25227,7 +25169,7 @@
     </row>
     <row r="65" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B65" s="52">
         <v>2020</v>
@@ -25357,7 +25299,7 @@
     </row>
     <row r="66" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A66" s="52" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B66" s="52">
         <v>0</v>
@@ -25487,7 +25429,7 @@
     </row>
     <row r="67" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A67" s="52" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B67" s="52">
         <v>0</v>
@@ -25617,7 +25559,7 @@
     </row>
     <row r="68" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A68" s="52" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B68" s="52">
         <v>0</v>
@@ -25747,7 +25689,7 @@
     </row>
     <row r="69" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A69" s="52" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B69" s="52">
         <v>0</v>
@@ -25877,7 +25819,7 @@
     </row>
     <row r="70" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A70" s="52" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B70" s="52">
         <v>0</v>
@@ -26007,7 +25949,7 @@
     </row>
     <row r="71" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B71" s="52">
         <v>0</v>
@@ -26137,7 +26079,7 @@
     </row>
     <row r="72" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A72" s="52" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B72" s="52">
         <v>0</v>
@@ -26267,7 +26209,7 @@
     </row>
     <row r="73" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A73" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B73" s="52">
         <v>0</v>
@@ -26397,7 +26339,7 @@
     </row>
     <row r="74" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A74" s="52" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B74" s="52">
         <v>0</v>
@@ -26527,7 +26469,7 @@
     </row>
     <row r="76" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A76" s="52" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B76" s="60">
         <f>B43*B25*10^9</f>
@@ -26536,7 +26478,7 @@
     </row>
     <row r="77" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A77" s="52" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B77" s="60">
         <f>SUM(E66:M68)</f>
@@ -26545,7 +26487,7 @@
     </row>
     <row r="79" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A79" s="52" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B79" s="62">
         <v>0.4</v>
@@ -26553,7 +26495,7 @@
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.25">
@@ -26656,7 +26598,7 @@
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -26668,52 +26610,56 @@
         <v>0</v>
       </c>
       <c r="E84" s="61">
-        <f>$M$84/9+D84</f>
-        <v>5.2222222222222218E-3</v>
+        <f>$N$84/10+D84</f>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="F84" s="61">
-        <f t="shared" ref="F84:L84" si="2">$M$84/9+E84</f>
-        <v>1.0444444444444444E-2</v>
+        <f t="shared" ref="F84:M84" si="1">$N$84/10+E84</f>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="G84" s="61">
-        <f t="shared" si="2"/>
-        <v>1.5666666666666666E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.4100000000000001E-2</v>
       </c>
       <c r="H84" s="61">
-        <f t="shared" si="2"/>
-        <v>2.0888888888888887E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="I84" s="61">
-        <f t="shared" si="2"/>
-        <v>2.6111111111111109E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.35E-2</v>
       </c>
       <c r="J84" s="61">
-        <f t="shared" si="2"/>
-        <v>3.1333333333333331E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="K84" s="61">
-        <f t="shared" si="2"/>
-        <v>3.6555555555555549E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="L84" s="61">
-        <f t="shared" si="2"/>
-        <v>4.1777777777777775E-2</v>
-      </c>
-      <c r="M84" s="63">
+        <f t="shared" si="1"/>
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="M84" s="61">
+        <f t="shared" si="1"/>
+        <v>4.2300000000000004E-2</v>
+      </c>
+      <c r="N84" s="63">
         <f>B62</f>
         <v>4.7E-2</v>
       </c>
-      <c r="N84" s="60">
-        <v>0</v>
-      </c>
-      <c r="O84" s="60">
-        <v>0</v>
-      </c>
-      <c r="P84" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="60">
-        <v>0</v>
+      <c r="O84" s="62">
+        <f>$N$84*0.75</f>
+        <v>3.5250000000000004E-2</v>
+      </c>
+      <c r="P84" s="62">
+        <f>N84*0.5</f>
+        <v>2.35E-2</v>
+      </c>
+      <c r="Q84" s="62">
+        <f>N84*0.25</f>
+        <v>1.175E-2</v>
       </c>
       <c r="R84" s="60">
         <v>0</v>
@@ -26775,55 +26721,52 @@
         <v>0</v>
       </c>
       <c r="E85" s="61">
-        <f>$M$85/9+D85</f>
-        <v>4.4444444444444446E-2</v>
+        <f>$N$85/10+D85</f>
+        <v>0.04</v>
       </c>
       <c r="F85" s="61">
-        <f t="shared" ref="F85:L85" si="3">$M$85/9+E85</f>
-        <v>8.8888888888888892E-2</v>
+        <f t="shared" ref="F85:M85" si="2">$N$85/10+E85</f>
+        <v>0.08</v>
       </c>
       <c r="G85" s="61">
-        <f t="shared" si="3"/>
-        <v>0.13333333333333333</v>
+        <f t="shared" si="2"/>
+        <v>0.12</v>
       </c>
       <c r="H85" s="61">
-        <f t="shared" si="3"/>
-        <v>0.17777777777777778</v>
+        <f t="shared" si="2"/>
+        <v>0.16</v>
       </c>
       <c r="I85" s="61">
-        <f t="shared" si="3"/>
-        <v>0.22222222222222224</v>
+        <f t="shared" si="2"/>
+        <v>0.2</v>
       </c>
       <c r="J85" s="61">
-        <f t="shared" si="3"/>
-        <v>0.26666666666666666</v>
+        <f t="shared" si="2"/>
+        <v>0.24000000000000002</v>
       </c>
       <c r="K85" s="61">
-        <f t="shared" si="3"/>
-        <v>0.31111111111111112</v>
+        <f t="shared" si="2"/>
+        <v>0.28000000000000003</v>
       </c>
       <c r="L85" s="61">
-        <f t="shared" si="3"/>
-        <v>0.35555555555555557</v>
-      </c>
-      <c r="M85" s="64">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="M85" s="61">
+        <f t="shared" si="2"/>
+        <v>0.36</v>
+      </c>
+      <c r="N85" s="62">
         <f>B79</f>
         <v>0.4</v>
       </c>
-      <c r="N85" s="62">
-        <f>M85-$M$85/4</f>
-        <v>0.30000000000000004</v>
-      </c>
       <c r="O85" s="62">
-        <f t="shared" ref="O85:Q85" si="4">N85-$M$85/4</f>
-        <v>0.20000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P85" s="62">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000003</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="62">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R85" s="60">
@@ -26914,117 +26857,114 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AF1048576"/>
+      <selection activeCell="AD3" sqref="AD3:AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="32" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="2">
-        <v>2020</v>
-      </c>
-      <c r="C1">
+      <c r="B1">
         <v>2021</v>
       </c>
-      <c r="D1" s="2">
+      <c r="C1" s="2">
         <v>2022</v>
       </c>
-      <c r="E1">
+      <c r="D1">
         <v>2023</v>
       </c>
-      <c r="F1" s="2">
+      <c r="E1" s="2">
         <v>2024</v>
       </c>
-      <c r="G1">
+      <c r="F1">
         <v>2025</v>
       </c>
-      <c r="H1" s="2">
+      <c r="G1" s="2">
         <v>2026</v>
       </c>
-      <c r="I1">
+      <c r="H1">
         <v>2027</v>
       </c>
-      <c r="J1" s="2">
+      <c r="I1" s="2">
         <v>2028</v>
       </c>
-      <c r="K1">
+      <c r="J1">
         <v>2029</v>
       </c>
-      <c r="L1" s="2">
+      <c r="K1" s="2">
         <v>2030</v>
       </c>
-      <c r="M1">
+      <c r="L1">
         <v>2031</v>
       </c>
-      <c r="N1" s="2">
+      <c r="M1" s="2">
         <v>2032</v>
       </c>
-      <c r="O1">
+      <c r="N1">
         <v>2033</v>
       </c>
-      <c r="P1" s="2">
+      <c r="O1" s="2">
         <v>2034</v>
       </c>
-      <c r="Q1">
+      <c r="P1">
         <v>2035</v>
       </c>
-      <c r="R1" s="2">
+      <c r="Q1" s="2">
         <v>2036</v>
       </c>
-      <c r="S1">
+      <c r="R1">
         <v>2037</v>
       </c>
-      <c r="T1" s="2">
+      <c r="S1" s="2">
         <v>2038</v>
       </c>
-      <c r="U1">
+      <c r="T1">
         <v>2039</v>
       </c>
-      <c r="V1" s="2">
+      <c r="U1" s="2">
         <v>2040</v>
       </c>
-      <c r="W1">
+      <c r="V1">
         <v>2041</v>
       </c>
-      <c r="X1" s="2">
+      <c r="W1" s="2">
         <v>2042</v>
       </c>
-      <c r="Y1">
+      <c r="X1">
         <v>2043</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Y1" s="2">
         <v>2044</v>
       </c>
-      <c r="AA1">
+      <c r="Z1">
         <v>2045</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AA1" s="2">
         <v>2046</v>
       </c>
-      <c r="AC1">
+      <c r="AB1">
         <v>2047</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AC1" s="2">
         <v>2048</v>
       </c>
-      <c r="AE1">
+      <c r="AD1">
         <v>2049</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AE1" s="2">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -27148,270 +27088,258 @@
         <f>'Set Asides'!$A$29</f>
         <v>136290</v>
       </c>
-      <c r="AF2">
-        <f>'Set Asides'!$A$29</f>
-        <v>136290</v>
-      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!B85</f>
-        <v>3554041.2119197226</v>
-      </c>
-      <c r="C3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!C85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="D3" s="3">
+      <c r="C3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!D85</f>
         <v>3554041.2119197226</v>
       </c>
+      <c r="D3" s="3">
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!E85</f>
+        <v>3411879.5634429338</v>
+      </c>
       <c r="E3" s="3">
-        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!E85</f>
-        <v>3396083.8247232903</v>
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!F85</f>
+        <v>3269717.9149661446</v>
       </c>
       <c r="F3" s="3">
-        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!F85</f>
-        <v>3238126.4375268584</v>
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!G85</f>
+        <v>3127556.2664893558</v>
       </c>
       <c r="G3" s="3">
-        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!G85</f>
-        <v>3080169.0503304261</v>
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!H85</f>
+        <v>2985394.6180125671</v>
       </c>
       <c r="H3" s="3">
-        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!H85</f>
-        <v>2922211.6631339942</v>
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!I85</f>
+        <v>2843232.9695357783</v>
       </c>
       <c r="I3" s="3">
-        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!I85</f>
-        <v>2764254.2759375619</v>
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!J85</f>
+        <v>2701071.321058989</v>
       </c>
       <c r="J3" s="3">
-        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!J85</f>
-        <v>2606296.88874113</v>
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!K85</f>
+        <v>2558909.6725822003</v>
       </c>
       <c r="K3" s="3">
-        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!K85</f>
-        <v>2448339.5015446977</v>
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!L85</f>
+        <v>2416748.024105411</v>
       </c>
       <c r="L3" s="3">
-        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!L85</f>
-        <v>2290382.1143482653</v>
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!M85</f>
+        <v>2274586.3756286222</v>
       </c>
       <c r="M3" s="3">
-        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!M85</f>
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!N85</f>
         <v>2132424.7271518335</v>
       </c>
       <c r="N3" s="3">
-        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!N85</f>
-        <v>2487828.8483438054</v>
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!O85</f>
+        <v>3554041.2119197226</v>
       </c>
       <c r="O3" s="3">
-        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!O85</f>
-        <v>2843232.9695357778</v>
+        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!P85</f>
+        <v>3554041.2119197226</v>
       </c>
       <c r="P3" s="3">
-        <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!P85</f>
-        <v>3198637.0907277502</v>
-      </c>
-      <c r="Q3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!Q85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="R3" s="3">
+      <c r="Q3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!R85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="S3" s="3">
+      <c r="R3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!S85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="T3" s="3">
+      <c r="S3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!T85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="U3" s="3">
+      <c r="T3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!U85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="V3" s="3">
+      <c r="U3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!V85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="W3" s="3">
+      <c r="V3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!W85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="X3" s="3">
+      <c r="W3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!X85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="X3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!Y85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Y3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!Z85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="Z3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!AA85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AA3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!AB85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AB3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!AC85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AC3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!AD85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="AE3" s="3">
+      <c r="AD3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!AE85</f>
         <v>3554041.2119197226</v>
       </c>
-      <c r="AF3" s="3">
+      <c r="AE3" s="3">
         <f>TNC_summary!$C$9-TNC_summary!$C$9*'Inflation Reduction Act'!AF85</f>
         <v>3554041.2119197226</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!B84</f>
-        <v>265800000</v>
-      </c>
-      <c r="C4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!C84</f>
         <v>265800000</v>
       </c>
-      <c r="D4" s="3">
+      <c r="C4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!D84</f>
         <v>265800000</v>
       </c>
+      <c r="D4" s="3">
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!E84</f>
+        <v>264550740</v>
+      </c>
       <c r="E4" s="3">
-        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!E84</f>
-        <v>264411933.33333334</v>
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!F84</f>
+        <v>263301480</v>
       </c>
       <c r="F4" s="3">
-        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!F84</f>
-        <v>263023866.66666666</v>
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!G84</f>
+        <v>262052220</v>
       </c>
       <c r="G4" s="3">
-        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!G84</f>
-        <v>261635800</v>
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!H84</f>
+        <v>260802960</v>
       </c>
       <c r="H4" s="3">
-        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!H84</f>
-        <v>260247733.33333334</v>
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!I84</f>
+        <v>259553700</v>
       </c>
       <c r="I4" s="3">
-        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!I84</f>
-        <v>258859666.66666666</v>
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!J84</f>
+        <v>258304440</v>
       </c>
       <c r="J4" s="3">
-        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!J84</f>
-        <v>257471600</v>
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!K84</f>
+        <v>257055180</v>
       </c>
       <c r="K4" s="3">
-        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!K84</f>
-        <v>256083533.33333334</v>
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!L84</f>
+        <v>255805920</v>
       </c>
       <c r="L4" s="3">
-        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!L84</f>
-        <v>254695466.66666666</v>
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!M84</f>
+        <v>254556660</v>
       </c>
       <c r="M4" s="3">
-        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!M84</f>
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!N84</f>
         <v>253307400</v>
       </c>
       <c r="N4" s="3">
-        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!N84</f>
-        <v>265800000</v>
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!O84</f>
+        <v>256430550</v>
       </c>
       <c r="O4" s="3">
-        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!O84</f>
-        <v>265800000</v>
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!P84</f>
+        <v>259553700</v>
       </c>
       <c r="P4" s="3">
-        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!P84</f>
-        <v>265800000</v>
+        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!Q84</f>
+        <v>262676850</v>
       </c>
       <c r="Q4" s="3">
-        <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!Q84</f>
-        <v>265800000</v>
-      </c>
-      <c r="R4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!R84</f>
         <v>265800000</v>
       </c>
-      <c r="S4" s="3">
+      <c r="R4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!S84</f>
         <v>265800000</v>
       </c>
-      <c r="T4" s="3">
+      <c r="S4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!T84</f>
         <v>265800000</v>
       </c>
-      <c r="U4" s="3">
+      <c r="T4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!U84</f>
         <v>265800000</v>
       </c>
-      <c r="V4" s="3">
+      <c r="U4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!V84</f>
         <v>265800000</v>
       </c>
-      <c r="W4" s="3">
+      <c r="V4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!W84</f>
         <v>265800000</v>
       </c>
-      <c r="X4" s="3">
+      <c r="W4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!X84</f>
         <v>265800000</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="X4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!Y84</f>
         <v>265800000</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Y4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!Z84</f>
         <v>265800000</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="Z4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!AA84</f>
         <v>265800000</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AA4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!AB84</f>
         <v>265800000</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AB4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!AC84</f>
         <v>265800000</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AC4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!AD84</f>
         <v>265800000</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AD4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!AE84</f>
         <v>265800000</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AE4" s="3">
         <f>'Impr Forest Mgmt'!$A29-'Impr Forest Mgmt'!$A29*'Inflation Reduction Act'!AF84</f>
         <v>265800000</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -27535,20 +27463,17 @@
         <f>TNC_summary!$C$15</f>
         <v>187905.59808789165</v>
       </c>
-      <c r="AF5" s="3">
-        <f>TNC_summary!$C$15</f>
-        <v>187905.59808789165</v>
-      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" s="3">
+        <f>Peatland!$B$8</f>
+        <v>116927.89655172414</v>
       </c>
       <c r="D6" s="3">
         <f>Peatland!$B$8</f>
@@ -27662,12 +27587,8 @@
         <f>Peatland!$B$8</f>
         <v>116927.89655172414</v>
       </c>
-      <c r="AF6" s="3">
-        <f>Peatland!$B$8</f>
-        <v>116927.89655172414</v>
-      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -27788,10 +27709,6 @@
         <v>189275.41206509282</v>
       </c>
       <c r="AE7" s="3">
-        <f>TNC_summary!$C$20</f>
-        <v>189275.41206509282</v>
-      </c>
-      <c r="AF7" s="3">
         <f>TNC_summary!$C$20</f>
         <v>189275.41206509282</v>
       </c>
